--- a/image/structuredefinition.xlsx
+++ b/image/structuredefinition.xlsx
@@ -1200,46 +1200,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.57421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.2265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="85.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.11328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.89453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="85.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.43359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="36.69921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="20.61328125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="20.82421875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/structuredefinition.xlsx
+++ b/image/structuredefinition.xlsx
@@ -157,7 +157,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}sdf-9:In any snapshot or differential, no label, code or requirements on an element without a "." in the path (e.g. the first element) {children().element.where(path.contains('.').not()).label.empty() and children().element.where(path.contains('.').not()).code.empty() and children().element.where(path.contains('.').not()).requirements.empty()}sdf-15a:If the first element in a differential has no "." in the path and it's not a logical model, it has no type {(kind!='logical'  and differential.element.first().path.contains('.').not()) implies differential.element.first().type.empty()}sdf-19:FHIR Specification models only use FHIR defined types {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (differential.element.type.code.all(hasValue() implies matches('^[a-zA-Z0-9]+$')) and snapshot.element.type.code.all(hasValue() implies matches('^[a-zA-Z0-9]+$')))}sdf-16:All element definitions must have unique ids (snapshot) {snapshot.element.all(id.exists()) and snapshot.element.id.trace('ids').isDistinct()}sdf-15:The first element in a snapshot has no type unless model is a logical model. {kind!='logical'  implies snapshot.element.first().type.empty()}sdf-18:Context Invariants can only be used for extensions {contextInvariant.exists() implies type = 'Extension'}sdf-17:All element definitions must have unique ids (diff) {differential.element.all(id.exists()) and differential.element.id.trace('ids').isDistinct()}sdf-23:No slice name on root {(snapshot | differential).element.all(path.contains('.').not() implies sliceName.empty())}sdf-11:If there's a type, its content must match the path name in the first element of a snapshot {kind != 'logical' implies snapshot.empty() or snapshot.element.first().path = type}sdf-22:FHIR Specification models never have default values {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (snapshot.element.defaultValue.empty() and differential.element.defaultValue.empty())}sdf-14:All element definitions must have an id {snapshot.element.all(id.exists()) and differential.element.all(id.exists())}sdf-1:Element paths must be unique unless the structure is a constraint {derivation = 'constraint' or snapshot.element.select(path).isDistinct()}sdf-21:Default values can only be specified on specializations {differential.element.defaultValue.exists() implies (derivation = 'specialization')}sdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}sdf-6:A structure must have either a differential, or a snapshot (or both) {snapshot.exists() or differential.exists()}sdf-5:If the structure defines an extension then the structure must have context information {type != 'Extension' or derivation = 'specialization' or (context.exists())}sdf-4:If the structure is not abstract, then there SHALL be a baseDefinition {abstract = true or baseDefinition.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}sdf-9:In any snapshot or differential, no label, code or requirements on an element without a "." in the path (e.g. the first element) {children().element.where(path.contains('.').not()).label.empty() and children().element.where(path.contains('.').not()).code.empty() and children().element.where(path.contains('.').not()).requirements.empty()}sdf-15a:If the first element in a differential has no "." in the path and it's not a logical model, it has no type {(kind!='logical'  and differential.element.first().path.contains('.').not()) implies differential.element.first().type.empty()}sdf-19:FHIR Specification models only use FHIR defined types {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (differential | snapshot).element.type.code.all(matches('^[a-zA-Z0-9]+$') or matches('^http:\\/\\/hl7\\.org\\/fhirpath\\/System\\.[A-Z][A-Za-z]+$'))}sdf-16:All element definitions must have unique ids (snapshot) {snapshot.element.all(id.exists()) and snapshot.element.id.trace('ids').isDistinct()}sdf-15:The first element in a snapshot has no type unless model is a logical model. {kind!='logical'  implies snapshot.element.first().type.empty()}sdf-18:Context Invariants can only be used for extensions {contextInvariant.exists() implies type = 'Extension'}sdf-17:All element definitions must have unique ids (diff) {differential.element.all(id.exists()) and differential.element.id.trace('ids').isDistinct()}sdf-23:No slice name on root {(snapshot | differential).element.all(path.contains('.').not() implies sliceName.empty())}sdf-11:If there's a type, its content must match the path name in the first element of a snapshot {kind != 'logical' implies snapshot.empty() or snapshot.element.first().path = type}sdf-22:FHIR Specification models never have default values {url.startsWith('http://hl7.org/fhir/StructureDefinition') implies (snapshot.element.defaultValue.empty() and differential.element.defaultValue.empty())}sdf-14:All element definitions must have an id {snapshot.element.all(id.exists()) and differential.element.all(id.exists())}sdf-1:Element paths must be unique unless the structure is a constraint {derivation = 'constraint' or snapshot.element.select(path).isDistinct()}sdf-21:Default values can only be specified on specializations {differential.element.defaultValue.exists() implies (derivation = 'specialization')}sdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}sdf-6:A structure must have either a differential, or a snapshot (or both) {snapshot.exists() or differential.exists()}sdf-5:If the structure defines an extension then the structure must have context information {type != 'Extension' or derivation = 'specialization' or (context.exists())}sdf-4:If the structure is not abstract, then there SHALL be a baseDefinition {abstract = true or baseDefinition.exists()}</t>
   </si>
   <si>
     <t>n/a</t>
@@ -172,7 +172,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -398,10 +398,6 @@
   </si>
   <si>
     <t>StructureDefinition.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the structure definition</t>
@@ -786,6 +782,10 @@
   </si>
   <si>
     <t>StructureDefinition.mapping.identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
   </si>
   <si>
     <t>Internal id when this mapping is used</t>
@@ -1200,46 +1200,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.57421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.2265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="85.85546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.43359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="36.69921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="85.9140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.11328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="35.89453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="20.82421875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="20.61328125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2645,16 +2645,16 @@
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2722,13 +2722,13 @@
         <v>44</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>44</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2759,19 +2759,19 @@
         <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -2820,7 +2820,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>50</v>
@@ -2829,7 +2829,7 @@
         <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>44</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2875,16 +2875,16 @@
         <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2934,7 +2934,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2952,7 +2952,7 @@
         <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>44</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2992,13 +2992,13 @@
         <v>69</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3024,55 +3024,55 @@
         <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>44</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3103,19 +3103,19 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3164,7 +3164,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3182,13 +3182,13 @@
         <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
@@ -3196,11 +3196,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3219,16 +3219,16 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3278,7 +3278,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3296,10 +3296,10 @@
         <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>44</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3333,19 +3333,19 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -3394,7 +3394,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3412,13 +3412,13 @@
         <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>44</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3449,16 +3449,16 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3508,7 +3508,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3526,7 +3526,7 @@
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3563,16 +3563,16 @@
         <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3622,7 +3622,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3640,7 +3640,7 @@
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3677,19 +3677,19 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -3738,7 +3738,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3756,7 +3756,7 @@
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>44</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3793,16 +3793,16 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3828,14 +3828,14 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3870,7 +3870,7 @@
         <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3907,16 +3907,16 @@
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3966,7 +3966,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3984,10 +3984,10 @@
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>44</v>
@@ -3998,11 +3998,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4021,17 +4021,17 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4080,7 +4080,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4098,7 +4098,7 @@
         <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4135,17 +4135,17 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4170,14 +4170,14 @@
         <v>44</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>44</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4218,7 +4218,7 @@
         <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4252,13 +4252,13 @@
         <v>69</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4284,14 +4284,14 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4363,13 +4363,13 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4420,7 +4420,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4432,7 +4432,7 @@
         <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>44</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4475,13 +4475,13 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4593,7 +4593,7 @@
         <v>96</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>98</v>
@@ -4646,7 +4646,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4678,11 +4678,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4704,10 +4704,10 @@
         <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>98</v>
@@ -4762,7 +4762,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4817,7 +4817,7 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>246</v>
@@ -4876,7 +4876,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>50</v>
@@ -5045,7 +5045,7 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>255</v>
@@ -5157,7 +5157,7 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>258</v>
@@ -5302,7 +5302,7 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X36" t="s" s="2">
         <v>263</v>
@@ -5381,7 +5381,7 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>266</v>
@@ -5495,7 +5495,7 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>270</v>
@@ -5607,13 +5607,13 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5664,7 +5664,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5725,7 +5725,7 @@
         <v>96</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>98</v>
@@ -5778,7 +5778,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5814,7 +5814,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5836,10 +5836,10 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>98</v>
@@ -5894,7 +5894,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5982,7 +5982,7 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X42" t="s" s="2">
         <v>280</v>
@@ -6061,7 +6061,7 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>283</v>
@@ -6173,7 +6173,7 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>286</v>
@@ -6322,7 +6322,7 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>294</v>
@@ -6550,7 +6550,7 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>307</v>
@@ -6629,7 +6629,7 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>310</v>
@@ -6741,13 +6741,13 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6798,7 +6798,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -6859,7 +6859,7 @@
         <v>96</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>98</v>
@@ -6912,7 +6912,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6970,10 +6970,10 @@
         <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>98</v>
@@ -7028,7 +7028,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7195,7 +7195,7 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>325</v>
@@ -7307,13 +7307,13 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7364,7 +7364,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7425,7 +7425,7 @@
         <v>96</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>98</v>
@@ -7478,7 +7478,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7536,10 +7536,10 @@
         <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>98</v>
@@ -7594,7 +7594,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
